--- a/Code/Polygons_analysis/Philadelphia_PA/clustering_analysis/urban_pattern_analysis.xlsx
+++ b/Code/Polygons_analysis/Philadelphia_PA/clustering_analysis/urban_pattern_analysis.xlsx
@@ -571,205 +571,205 @@
         <v>-0.4339946259536856</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.3940475267758385</v>
+        <v>-0.3940475267780196</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.06757715273789475</v>
+        <v>-0.06757715273584491</v>
       </c>
       <c r="P2" t="n">
         <v>-0.3688421066238624</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.252671167643452</v>
+        <v>0.2526711676449853</v>
       </c>
       <c r="R2" t="n">
         <v>0.2545106651040606</v>
       </c>
       <c r="S2" t="n">
-        <v>0.01994083300430387</v>
+        <v>0.01994083300431115</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.662692793041413</v>
+        <v>0.2211266459770518</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.488296699697434</v>
+        <v>0.2325457353049279</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.087690987667618</v>
+        <v>0.224085304569956</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.295961013599762</v>
+        <v>0.2421971513605525</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.3988201718095916</v>
+        <v>-0.07105237438292579</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2935661400801035</v>
+        <v>-0.2349224768167192</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.596737264128366</v>
+        <v>0.3000916045382298</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.155307058857352</v>
+        <v>0.2285679259387597</v>
       </c>
       <c r="J3" t="n">
-        <v>-1.131956781420846</v>
+        <v>0.2263699678899929</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2825386178481543</v>
+        <v>-0.234244332201742</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3559018739304362</v>
+        <v>-0.3896716989236834</v>
       </c>
       <c r="M3" t="n">
-        <v>-2.530320316067459</v>
+        <v>0.2948643557219693</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.2530418887514264</v>
+        <v>0.1550243744852056</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4696987779357423</v>
+        <v>0.0690467529177083</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1326892821183419</v>
+        <v>0.2276696995432574</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.4416670757570437</v>
+        <v>-0.03539013058914095</v>
       </c>
       <c r="R3" t="n">
-        <v>0.358008445118475</v>
+        <v>0.05663630187582247</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.5149570779741899</v>
+        <v>0.01665010623659475</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.8154886484251442</v>
+        <v>-1.662692793041413</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.8621402628845521</v>
+        <v>-1.488296699697434</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.827702493496959</v>
+        <v>-1.087690987667618</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.8874676226555644</v>
+        <v>-1.295961013599762</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3205254157622064</v>
+        <v>-0.3988201718095916</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9233543228297104</v>
+        <v>0.2935661400801035</v>
       </c>
       <c r="H4" t="n">
-        <v>-1.177427516569175</v>
+        <v>-2.596737264128366</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.845067861993725</v>
+        <v>-1.155307058857352</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.8309670321351672</v>
+        <v>-1.131956781420846</v>
       </c>
       <c r="K4" t="n">
-        <v>0.918138721756168</v>
+        <v>0.2825386178481543</v>
       </c>
       <c r="L4" t="n">
-        <v>1.613688739716077</v>
+        <v>0.3559018739304362</v>
       </c>
       <c r="M4" t="n">
-        <v>-1.168791726400114</v>
+        <v>-2.530320316067459</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.5995296484576561</v>
+        <v>-0.253041888746885</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.29988359212157</v>
+        <v>0.469698777942685</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.9330435368254496</v>
+        <v>0.1326892821183419</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.09623228028757272</v>
+        <v>0.441667075759272</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.309713391069004</v>
+        <v>0.358008445118475</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.06850384833620202</v>
+        <v>-0.5149570779741942</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2211266459770518</v>
+        <v>-0.8154886484251442</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2325457353049279</v>
+        <v>-0.8621402628845521</v>
       </c>
       <c r="D5" t="n">
-        <v>0.224085304569956</v>
+        <v>-0.827702493496959</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2421971513605525</v>
+        <v>-0.8874676226555644</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.07105237438292579</v>
+        <v>0.3205254157622064</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2349224768167192</v>
+        <v>0.9233543228297104</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3000916045382298</v>
+        <v>-1.177427516569175</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2285679259387597</v>
+        <v>-0.845067861993725</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2263699678899929</v>
+        <v>-0.8309670321351672</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.234244332201742</v>
+        <v>0.918138721756168</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.3896716989236834</v>
+        <v>1.613688739716077</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2948643557219693</v>
+        <v>-1.168791726400114</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1550243744850255</v>
+        <v>-0.5995296484580961</v>
       </c>
       <c r="O5" t="n">
-        <v>0.06904675291771048</v>
+        <v>-0.2998835921221345</v>
       </c>
       <c r="P5" t="n">
-        <v>0.2276696995432574</v>
+        <v>-0.9330435368254496</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.03539013058907173</v>
+        <v>0.09623228028753697</v>
       </c>
       <c r="R5" t="n">
-        <v>0.05663630187582247</v>
+        <v>-0.309713391069004</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01665010623659466</v>
+        <v>-0.06850384833620524</v>
       </c>
     </row>
   </sheetData>
@@ -989,58 +989,58 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6093096673830758</v>
+        <v>0.6093096673830344</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4882245682497146</v>
+        <v>0.4882245682497234</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3692244871708303</v>
+        <v>0.3692244871708479</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5586794761279933</v>
+        <v>0.5586794761279588</v>
       </c>
       <c r="F2" t="n">
-        <v>0.200314225197492</v>
+        <v>0.2003142251975275</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.4621001637805368</v>
+        <v>-0.4621001637805441</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5307096125546827</v>
+        <v>0.530709612554669</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3803091972360143</v>
+        <v>0.3803091972360318</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4043480401941065</v>
+        <v>0.4043480401941252</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.4425648573402406</v>
+        <v>-0.4425648573402547</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.4520469987550934</v>
+        <v>-0.4520469987551237</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5124962711807549</v>
+        <v>0.512496271180786</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.05928758586899929</v>
+        <v>-0.05928758586865965</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5444433873386778</v>
+        <v>0.5444433873382035</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1832594629492627</v>
+        <v>0.1832594629493693</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.3823703501801228</v>
+        <v>0.3823703501796936</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.1425244392830978</v>
+        <v>-0.142524439283205</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.1152219094422973</v>
+        <v>-0.1152219094422316</v>
       </c>
     </row>
     <row r="3">
@@ -1050,58 +1050,58 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.7428955131268349</v>
+        <v>-0.7428955131268297</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.8606153530061645</v>
+        <v>-0.8606153530061691</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.8333000024101378</v>
+        <v>-0.8333000024101436</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.8458274019840587</v>
+        <v>-0.8458274019840437</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3139355963784554</v>
+        <v>0.3139355963784307</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7130376344216074</v>
+        <v>0.7130376344216103</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.7860361324698036</v>
+        <v>-0.7860361324697984</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.8447562228393856</v>
+        <v>-0.8447562228393884</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.8470035934022436</v>
+        <v>-0.8470035934022501</v>
       </c>
       <c r="K3" t="n">
-        <v>0.703292661819275</v>
+        <v>0.7032926618192831</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5932094523943008</v>
+        <v>0.5932094523943123</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.7788467547469214</v>
+        <v>-0.778846754746926</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.5406116492999046</v>
+        <v>-0.5406116493000404</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.08206115998906595</v>
+        <v>-0.08206115998873113</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.6864758666654635</v>
+        <v>-0.6864758666655449</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.2202973030734457</v>
+        <v>0.2202973030737033</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.191582565582286</v>
+        <v>-0.1915825655822472</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.1113216357280363</v>
+        <v>-0.1113216357280767</v>
       </c>
     </row>
     <row r="4">
@@ -1111,58 +1111,58 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5556926326985352</v>
+        <v>0.5556926326986381</v>
       </c>
       <c r="C4" t="n">
-        <v>1.277095733843195</v>
+        <v>1.277095733843182</v>
       </c>
       <c r="D4" t="n">
-        <v>1.537770320170608</v>
+        <v>1.537770320170574</v>
       </c>
       <c r="E4" t="n">
-        <v>1.025706301532595</v>
+        <v>1.025706301532647</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.567072086693694</v>
+        <v>-1.567072086693721</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.8904894110614558</v>
+        <v>-0.8904894110614433</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9196661944653736</v>
+        <v>0.9196661944653954</v>
       </c>
       <c r="I4" t="n">
-        <v>1.541425888629898</v>
+        <v>1.541425888629854</v>
       </c>
       <c r="J4" t="n">
-        <v>1.478515282572504</v>
+        <v>1.478515282572467</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.9167905010837626</v>
+        <v>-0.9167905010837472</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.5441040959600155</v>
+        <v>-0.5441040959599627</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9501315768379791</v>
+        <v>0.9501315768379028</v>
       </c>
       <c r="N4" t="n">
-        <v>1.867259942637582</v>
+        <v>1.867259942637001</v>
       </c>
       <c r="O4" t="n">
-        <v>-1.327143524536704</v>
+        <v>-1.327143524536404</v>
       </c>
       <c r="P4" t="n">
-        <v>1.618680515683232</v>
+        <v>1.618680515683175</v>
       </c>
       <c r="Q4" t="n">
-        <v>-1.803335598361161</v>
+        <v>-1.8033355983607</v>
       </c>
       <c r="R4" t="n">
-        <v>1.015341186199773</v>
+        <v>1.015341186199964</v>
       </c>
       <c r="S4" t="n">
-        <v>0.684283268693003</v>
+        <v>0.684283268692937</v>
       </c>
     </row>
   </sheetData>
@@ -1206,7 +1206,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2.606147466996171</v>
+        <v>2.606147466994291</v>
       </c>
     </row>
     <row r="3">
@@ -1219,7 +1219,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2.264975281518078</v>
+        <v>2.264975281517963</v>
       </c>
     </row>
     <row r="4">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.221834889465035</v>
+        <v>2.221834889464956</v>
       </c>
     </row>
     <row r="5">
@@ -1245,7 +1245,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.161096911832308</v>
+        <v>2.16109691183023</v>
       </c>
     </row>
     <row r="6">
@@ -1258,7 +1258,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2.100138428142671</v>
+        <v>2.100138428142591</v>
       </c>
     </row>
     <row r="7">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2.082483165126019</v>
+        <v>2.082483165126036</v>
       </c>
     </row>
     <row r="8">
@@ -1284,7 +1284,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.665394639008391</v>
+        <v>1.665394639008377</v>
       </c>
     </row>
     <row r="9">
@@ -1297,7 +1297,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.395029303970787</v>
+        <v>1.395029303970833</v>
       </c>
     </row>
     <row r="10">
@@ -1310,7 +1310,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.183930563437329</v>
+        <v>1.183930563437369</v>
       </c>
     </row>
     <row r="11">
@@ -1323,7 +1323,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.132429782359705</v>
+        <v>1.132429782358441</v>
       </c>
     </row>
     <row r="12">
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.9314308925024947</v>
+        <v>0.9314308925024078</v>
       </c>
     </row>
     <row r="13">
@@ -1349,7 +1349,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.9086706526329216</v>
+        <v>0.908670652632937</v>
       </c>
     </row>
     <row r="14">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.7492972599158787</v>
+        <v>0.7492972599158753</v>
       </c>
     </row>
     <row r="15">
@@ -1375,7 +1375,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.7368679239955966</v>
+        <v>0.736867923995588</v>
       </c>
     </row>
     <row r="16">
@@ -1388,7 +1388,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.5285116197934777</v>
+        <v>0.5285116197934763</v>
       </c>
     </row>
     <row r="17">
@@ -1401,7 +1401,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.3754504373332408</v>
+        <v>0.3754504373334285</v>
       </c>
     </row>
     <row r="18">
@@ -1414,7 +1414,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.3025908202528325</v>
+        <v>0.3025908202528187</v>
       </c>
     </row>
     <row r="19">
@@ -1427,7 +1427,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.1130154674420494</v>
+        <v>0.1130154674420083</v>
       </c>
     </row>
   </sheetData>
